--- a/src/test/resources/mySQLObjectimport.xlsx
+++ b/src/test/resources/mySQLObjectimport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" state="visible" r:id="rId2"/>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">OasDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t xml:space="preserve">Id</t>
   </si>
   <si>
     <t xml:space="preserve">SMALLINT</t>
@@ -400,11 +400,11 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
@@ -898,10 +898,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
@@ -996,11 +996,11 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.68"/>
